--- a/Examples.Library/src/main/resources/xlsx/Template_ImageTemplate.xlsx
+++ b/Examples.Library/src/main/resources/xlsx/Template_ImageTemplate.xlsx
@@ -225,6 +225,58 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -233,58 +285,6 @@
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -439,30 +439,24 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>0</xdr:row>
+      <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1300214</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>806202</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>53341</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AAC43D44-3E1B-48BD-827D-50313BD0308A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
@@ -475,8 +469,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="209550" y="0"/>
-          <a:ext cx="1300214" cy="895350"/>
+          <a:off x="213360" y="243840"/>
+          <a:ext cx="3023622" cy="487681"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -788,7 +782,7 @@
   <dimension ref="A1:M228"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="S14" sqref="S14"/>
+      <selection activeCell="T5" sqref="T5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -827,25 +821,25 @@
     </row>
     <row r="2" spans="1:13" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="7"/>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
       <c r="D2" s="7"/>
       <c r="E2" s="7"/>
       <c r="F2" s="7"/>
-      <c r="G2" s="21"/>
-      <c r="H2" s="21"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="22" t="s">
+      <c r="J2" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
       <c r="M2" s="7"/>
     </row>
     <row r="3" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="21"/>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
       <c r="D3" s="7"/>
       <c r="E3" s="7"/>
       <c r="F3" s="7"/>
@@ -873,129 +867,129 @@
       <c r="M4" s="7"/>
     </row>
     <row r="5" spans="1:13" ht="38.85" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
     </row>
     <row r="6" spans="1:13" ht="45.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="25" t="s">
+      <c r="A6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="17"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
     </row>
     <row r="7" spans="1:13" ht="108" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="27" t="s">
+      <c r="B7" s="14"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="27"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="21"/>
+      <c r="K7" s="21"/>
+      <c r="L7" s="21"/>
+      <c r="M7" s="21"/>
     </row>
     <row r="8" spans="1:13" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="28" t="s">
+      <c r="B8" s="14"/>
+      <c r="C8" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D8" s="17"/>
+      <c r="D8" s="14"/>
       <c r="E8" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="29" t="s">
+      <c r="F8" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="G8" s="17"/>
-      <c r="H8" s="29" t="s">
+      <c r="G8" s="14"/>
+      <c r="H8" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
       <c r="K8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="20" t="s">
+      <c r="L8" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="17"/>
+      <c r="M8" s="14"/>
     </row>
     <row r="9" spans="1:13" s="9" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="13" t="s">
+      <c r="A9" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13" t="s">
+      <c r="B9" s="27"/>
+      <c r="C9" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="13"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="G9" s="14"/>
-      <c r="H9" s="14" t="s">
+      <c r="G9" s="28"/>
+      <c r="H9" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I9" s="14"/>
-      <c r="J9" s="14"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
       <c r="K9" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="L9" s="15" t="s">
+      <c r="L9" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="M9" s="15"/>
+      <c r="M9" s="29"/>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14" s="16"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
+      <c r="A14" s="24"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="14"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="17"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="14"/>
+      <c r="J14" s="14"/>
+      <c r="L14" s="26"/>
+      <c r="M14" s="14"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="H16" s="8"/>
@@ -1218,6 +1212,16 @@
     <row r="228" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="22">
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="L9:M9"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="L14:M14"/>
     <mergeCell ref="L8:M8"/>
     <mergeCell ref="B2:C3"/>
     <mergeCell ref="G2:H2"/>
@@ -1230,16 +1234,6 @@
     <mergeCell ref="C8:D8"/>
     <mergeCell ref="F8:G8"/>
     <mergeCell ref="H8:J8"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="L9:M9"/>
   </mergeCells>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0" right="0" top="0" bottom="0.63715000000000011" header="0" footer="0"/>
